--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_LINKOPING/Översikt LINKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45116</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45116</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45120</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45121</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45121</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45138</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
